--- a/biology/Botanique/Rosier_thé/Rosier_thé.xlsx
+++ b/biology/Botanique/Rosier_thé/Rosier_thé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosier_th%C3%A9</t>
+          <t>Rosier_thé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « rosiers thé », ou rosiers à odeur de thé, sont des hybrides de rosiers issus de croisements effectués par des rosiéristes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosier_th%C3%A9</t>
+          <t>Rosier_thé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les « rosiers thé », ou rosiers à odeur de thé, sont issus de croisements entre d'une part un Rosa ×odorata donc un des hybrides de Rosa chinensis × Rosa ×odorata nothovar. gigantea (soit Rosa ×odorata 'Hume's Blush Tea-scented China' soit Rosa ×odorata 'Park's Yellow Tea-scented China') et d'autre part un rosier Bourbon (Rosa chinensis × Rosa gallica ou Rosa damascena 'semperflorens' ou un rosier Noisette (Rosa moschata  × 'Old Blush')[1].
-Le premier rosier thé, 'Adam', obtenu en 1833, pour certains aurait disparu, pour d'autres ce serait 'the President'[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les « rosiers thé », ou rosiers à odeur de thé, sont issus de croisements entre d'une part un Rosa ×odorata donc un des hybrides de Rosa chinensis × Rosa ×odorata nothovar. gigantea (soit Rosa ×odorata 'Hume's Blush Tea-scented China' soit Rosa ×odorata 'Park's Yellow Tea-scented China') et d'autre part un rosier Bourbon (Rosa chinensis × Rosa gallica ou Rosa damascena 'semperflorens' ou un rosier Noisette (Rosa moschata  × 'Old Blush').
+Le premier rosier thé, 'Adam', obtenu en 1833, pour certains aurait disparu, pour d'autres ce serait 'the President'.
 Les rosiers thé historiques, qui sont peu rustiques, ressemblent aux hybrides de thé, et beaucoup ont un port grimpant (climbing). Leur taille doit être très modérée, sinon ils fleurissent moins.
 'Archiduc Joseph', obtenu par Gilbert Nabonnand en 1892 est un semis de 'Mme Lombard'. C'est un buisson vigoureux à fleurs rose pourpré avec le centre rose carné
 'Catherine Mermet', Guillot 1869, buisson à grosses fleurs très pleines, rose carné
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosier_th%C3%A9</t>
+          <t>Rosier_thé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>les Thé-Polyantha, hybrides entre des rosiers thé et des rosiers polyantha, buissons à petites fleurs odorantes et remontantes.
 'Bloomfield Abundance' sport de 'Cécile Brunner', Thomas 1920, petites fleurs roses groupées en panicules portant jusqu'à 30 fleurs
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosier_th%C3%A9</t>
+          <t>Rosier_thé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>La plantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut planter le rosier de préférence en exposition ensoleillée ou mi-ombre, à l'automne ou au printemps.
 </t>
